--- a/tests/semantic_clusters_stats_20139.xlsx
+++ b/tests/semantic_clusters_stats_20139.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="499">
   <si>
     <t>question</t>
   </si>
@@ -917,364 +917,301 @@
     <t>применяй обучай совершенствуй</t>
   </si>
   <si>
-    <t>узнать новый информация</t>
-  </si>
-  <si>
-    <t>обмен знание</t>
-  </si>
-  <si>
-    <t>узнать новый</t>
-  </si>
-  <si>
-    <t>держать информация максимально</t>
-  </si>
-  <si>
-    <t>совершенствование знание</t>
-  </si>
-  <si>
-    <t>получить новый знание умение</t>
-  </si>
-  <si>
-    <t>выполнить иметь знание</t>
-  </si>
-  <si>
-    <t>новый знание навык</t>
-  </si>
-  <si>
-    <t>максимум полезный знание</t>
-  </si>
-  <si>
-    <t>расширить свой знание</t>
+    <t>узнать новое опыт других</t>
+  </si>
+  <si>
+    <t>держать информацию максимально</t>
+  </si>
+  <si>
+    <t>получить новые знания учения</t>
+  </si>
+  <si>
+    <t>новые знания инструменты</t>
+  </si>
+  <si>
+    <t>новые знания практика эй</t>
+  </si>
+  <si>
+    <t>поиск вдохновение</t>
+  </si>
+  <si>
+    <t>продавать тренерские знания</t>
+  </si>
+  <si>
+    <t>расширьте свои знания</t>
+  </si>
+  <si>
+    <t>учится новым знания примет</t>
+  </si>
+  <si>
+    <t>узнать лучшие практика</t>
+  </si>
+  <si>
+    <t>взять максимум пред</t>
+  </si>
+  <si>
+    <t>научиться</t>
+  </si>
+  <si>
+    <t>поделиться своим</t>
+  </si>
+  <si>
+    <t>узнать новое инструмент би</t>
+  </si>
+  <si>
+    <t>познакомиться эс коллега</t>
+  </si>
+  <si>
+    <t>обмен э новый опыт э</t>
+  </si>
+  <si>
+    <t>учи ба оптимизации производит</t>
+  </si>
+  <si>
+    <t>зарядить энергия работы</t>
+  </si>
+  <si>
+    <t>получить ответы вопросы</t>
+  </si>
+  <si>
+    <t>узнать вовлекать э проект</t>
+  </si>
+  <si>
+    <t>применить</t>
+  </si>
+  <si>
+    <t>стать продуктивнее э работе</t>
+  </si>
+  <si>
+    <t>новые медики мотивации</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>знания умение</t>
+  </si>
+  <si>
+    <t>информации</t>
+  </si>
+  <si>
+    <t>раза</t>
+  </si>
+  <si>
+    <t>узнать складской рог</t>
+  </si>
+  <si>
+    <t>вагон знания увезти</t>
+  </si>
+  <si>
+    <t>взять максимально полезно информация</t>
+  </si>
+  <si>
+    <t>встать новые знания учения</t>
+  </si>
+  <si>
+    <t>выполнить знания</t>
+  </si>
+  <si>
+    <t>выполнить имеющие знания э</t>
+  </si>
+  <si>
+    <t>знания учения навыки</t>
+  </si>
+  <si>
+    <t>изучение нового материал</t>
+  </si>
+  <si>
+    <t>максимальное получение знания</t>
+  </si>
+  <si>
+    <t>максимум знания</t>
+  </si>
+  <si>
+    <t>максимум полезный знания</t>
+  </si>
+  <si>
+    <t>найти новое</t>
   </si>
   <si>
     <t>научиться применить</t>
   </si>
   <si>
-    <t>получить навык развитие пес</t>
-  </si>
-  <si>
-    <t>обмен новый опыт</t>
-  </si>
-  <si>
-    <t>новый знание инструмент</t>
-  </si>
-  <si>
-    <t>повысить компетенция тренер</t>
-  </si>
-  <si>
-    <t>объявить знание</t>
-  </si>
-  <si>
-    <t>усовершенствовать навык</t>
-  </si>
-  <si>
-    <t>получить новый навык</t>
-  </si>
-  <si>
-    <t>приемный обычай совершенство</t>
-  </si>
-  <si>
-    <t>получить знание</t>
-  </si>
-  <si>
-    <t>узнать хороший практика</t>
-  </si>
-  <si>
-    <t>стать продуктивнее работа</t>
-  </si>
-  <si>
-    <t>зарядить энергия работа</t>
-  </si>
-  <si>
-    <t>взять максимум пред</t>
-  </si>
-  <si>
-    <t>встретить свой одногрупник</t>
-  </si>
-  <si>
-    <t>извлечь сотрудник</t>
-  </si>
-  <si>
-    <t>проект деятельность</t>
-  </si>
-  <si>
-    <t>новый полезный знакомство</t>
-  </si>
-  <si>
-    <t>общаться коллега</t>
-  </si>
-  <si>
-    <t>новый медик мотивация</t>
-  </si>
-  <si>
-    <t>посетить мастер класс иной</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>амбициозный</t>
-  </si>
-  <si>
-    <t>знание умение</t>
-  </si>
-  <si>
-    <t>большой</t>
-  </si>
-  <si>
-    <t>большой узнать складской лос</t>
-  </si>
-  <si>
-    <t>вагон знание увезти</t>
-  </si>
-  <si>
-    <t>взять максимально полезный информация</t>
-  </si>
-  <si>
-    <t>видать новый знание умение</t>
-  </si>
-  <si>
-    <t>выполнить знание</t>
-  </si>
-  <si>
-    <t>знание умение навык</t>
-  </si>
-  <si>
-    <t>изучение новый материал</t>
-  </si>
-  <si>
-    <t>максимальный получение знание</t>
-  </si>
-  <si>
-    <t>максимум знание</t>
-  </si>
-  <si>
-    <t>максимум информация</t>
-  </si>
-  <si>
-    <t>максимум новый информация</t>
-  </si>
-  <si>
-    <t>найти новый</t>
-  </si>
-  <si>
-    <t>научиться применить навык</t>
-  </si>
-  <si>
-    <t>научиться работать возражение</t>
-  </si>
-  <si>
-    <t>научиться новый</t>
-  </si>
-  <si>
-    <t>новый информ</t>
-  </si>
-  <si>
-    <t>новый информация</t>
-  </si>
-  <si>
-    <t>новый знание применение</t>
-  </si>
-  <si>
-    <t>новый знание</t>
-  </si>
-  <si>
-    <t>новый знание практика</t>
-  </si>
-  <si>
-    <t>новый знание практика э</t>
-  </si>
-  <si>
-    <t>новый знание вовлечение</t>
-  </si>
-  <si>
-    <t>новый знание повернуть</t>
-  </si>
-  <si>
-    <t>новый компетенция</t>
-  </si>
-  <si>
-    <t>новый навык</t>
-  </si>
-  <si>
-    <t>новый скала</t>
-  </si>
-  <si>
-    <t>новый умение</t>
-  </si>
-  <si>
-    <t>обмен получение новый анна</t>
+    <t>научиться применить навыки</t>
+  </si>
+  <si>
+    <t>научиться работать эс возражение</t>
+  </si>
+  <si>
+    <t>научиться чему новому</t>
+  </si>
+  <si>
+    <t>новые знание применение</t>
+  </si>
+  <si>
+    <t>новые знания практика</t>
+  </si>
+  <si>
+    <t>новые знания навыки э</t>
+  </si>
+  <si>
+    <t>новые знания вовлечению</t>
+  </si>
+  <si>
+    <t>новые знания повернуть</t>
+  </si>
+  <si>
+    <t>новые силы</t>
+  </si>
+  <si>
+    <t>новые учения</t>
+  </si>
+  <si>
+    <t>обмен получение новой линзы</t>
+  </si>
+  <si>
+    <t>объявить знания</t>
   </si>
   <si>
     <t>общаться совершенствоваться</t>
   </si>
   <si>
-    <t>учиться новый знание принять</t>
-  </si>
-  <si>
-    <t>открыть новый</t>
-  </si>
-  <si>
-    <t>повысить уровень знание</t>
-  </si>
-  <si>
-    <t>повышение знание опыт</t>
-  </si>
-  <si>
-    <t>повышение уровень знание</t>
-  </si>
-  <si>
-    <t>подчеркнуть новый</t>
-  </si>
-  <si>
-    <t>поиск новый знание</t>
-  </si>
-  <si>
-    <t>полезный информация работа</t>
-  </si>
-  <si>
-    <t>получение знание</t>
-  </si>
-  <si>
-    <t>получение информация</t>
-  </si>
-  <si>
-    <t>получение новый информация</t>
-  </si>
-  <si>
-    <t>получение новый</t>
-  </si>
-  <si>
-    <t>получение новый знание</t>
-  </si>
-  <si>
-    <t>получение новый знание опыт</t>
-  </si>
-  <si>
-    <t>получение новый навык</t>
-  </si>
-  <si>
-    <t>получить дополнительный знание</t>
-  </si>
-  <si>
-    <t>получить знание опыт</t>
-  </si>
-  <si>
-    <t>получить знание практика</t>
-  </si>
-  <si>
-    <t>получить знание хороший</t>
-  </si>
-  <si>
-    <t>получить макс полезный энзо</t>
-  </si>
-  <si>
-    <t>получить максимум знание</t>
-  </si>
-  <si>
-    <t>получить максимум знание новый</t>
-  </si>
-  <si>
-    <t>получить материал</t>
-  </si>
-  <si>
-    <t>получить новый информация</t>
-  </si>
-  <si>
-    <t>получить новый знание</t>
-  </si>
-  <si>
-    <t>получить новый знание знакомый</t>
-  </si>
-  <si>
-    <t>получить новый знание опыт</t>
-  </si>
-  <si>
-    <t>получить новый компетенция</t>
-  </si>
-  <si>
-    <t>получить новый навык умение</t>
-  </si>
-  <si>
-    <t>получить новый практика</t>
-  </si>
-  <si>
-    <t>получить новый умение</t>
-  </si>
-  <si>
-    <t>получить полезный знание</t>
-  </si>
-  <si>
-    <t>получить полезный новый знание</t>
-  </si>
-  <si>
-    <t>попомнить багаж знание</t>
-  </si>
-  <si>
-    <t>приобрести новый знание</t>
-  </si>
-  <si>
-    <t>расширить знание</t>
+    <t>учится</t>
+  </si>
+  <si>
+    <t>открыть новое</t>
+  </si>
+  <si>
+    <t>повысить уровень знания</t>
+  </si>
+  <si>
+    <t>повышение знания опыта</t>
+  </si>
+  <si>
+    <t>повышение уровня знания</t>
+  </si>
+  <si>
+    <t>поиск новых знания</t>
+  </si>
+  <si>
+    <t>полезно информацию работы</t>
+  </si>
+  <si>
+    <t>получение знания</t>
+  </si>
+  <si>
+    <t>получение новых знания</t>
+  </si>
+  <si>
+    <t>получение новых знания опыта</t>
+  </si>
+  <si>
+    <t>получение новых навыки</t>
+  </si>
+  <si>
+    <t>получить знания опыт</t>
+  </si>
+  <si>
+    <t>получить знания практика</t>
+  </si>
+  <si>
+    <t>получить знания лучших</t>
+  </si>
+  <si>
+    <t>получить макс полезный дно</t>
+  </si>
+  <si>
+    <t>получить максимум знания</t>
+  </si>
+  <si>
+    <t>получить максимум знания э новых</t>
+  </si>
+  <si>
+    <t>получить навыки развитие эс</t>
+  </si>
+  <si>
+    <t>получить новые знания знаком</t>
+  </si>
+  <si>
+    <t>получить новые знания опыт</t>
+  </si>
+  <si>
+    <t>получить новые знания э</t>
+  </si>
+  <si>
+    <t>получить новые компетенции оз</t>
+  </si>
+  <si>
+    <t>получить новые навыки учения</t>
+  </si>
+  <si>
+    <t>получить новые практика</t>
+  </si>
+  <si>
+    <t>получить новые учения</t>
+  </si>
+  <si>
+    <t>получить полезный знания</t>
+  </si>
+  <si>
+    <t>получить полезный новые знания</t>
+  </si>
+  <si>
+    <t>выполнить багаж знания</t>
+  </si>
+  <si>
+    <t>расширьте знания</t>
   </si>
   <si>
     <t>расширьте кругозор</t>
   </si>
   <si>
-    <t>расширьте кругозор компетен</t>
-  </si>
-  <si>
-    <t>расширить свой багаж знание</t>
-  </si>
-  <si>
-    <t>увезти максимум знание</t>
-  </si>
-  <si>
-    <t>увеличить свой база знание</t>
-  </si>
-  <si>
-    <t>углубить знание</t>
-  </si>
-  <si>
-    <t>углубить иметься знание</t>
-  </si>
-  <si>
-    <t>узнать новый верить</t>
-  </si>
-  <si>
-    <t>узнать новый внедрять</t>
-  </si>
-  <si>
-    <t>узнать новый опыт</t>
-  </si>
-  <si>
-    <t>узнать новый инструмент оп</t>
-  </si>
-  <si>
-    <t>узнать новый оп</t>
-  </si>
-  <si>
-    <t>умение</t>
-  </si>
-  <si>
-    <t>внести знание опыт</t>
-  </si>
-  <si>
-    <t>ух ба оптимизация производить</t>
-  </si>
-  <si>
-    <t>вдохновение рот</t>
-  </si>
-  <si>
-    <t>заряд энергия реализация</t>
-  </si>
-  <si>
-    <t>зарядить импульс изменение</t>
+    <t>расширьте кругозор компетен э</t>
+  </si>
+  <si>
+    <t>расширьте свой багаж знания</t>
+  </si>
+  <si>
+    <t>увезти максимум знания</t>
+  </si>
+  <si>
+    <t>увеличить базу знания</t>
+  </si>
+  <si>
+    <t>углубить имеющиеся знания э</t>
+  </si>
+  <si>
+    <t>узнать новое верить</t>
+  </si>
+  <si>
+    <t>узнать новое внедрять э</t>
+  </si>
+  <si>
+    <t>узнать новое би</t>
+  </si>
+  <si>
+    <t>узнать новое э э э</t>
+  </si>
+  <si>
+    <t>учения</t>
+  </si>
+  <si>
+    <t>унеси знание опыт</t>
+  </si>
+  <si>
+    <t>вдохновение пу</t>
+  </si>
+  <si>
+    <t>заряд энергии реализации</t>
+  </si>
+  <si>
+    <t>зарядить импульс изменений</t>
   </si>
   <si>
     <t>зарядить энергия</t>
@@ -1283,13 +1220,7 @@
     <t>активация</t>
   </si>
   <si>
-    <t>поиск вдохновение</t>
-  </si>
-  <si>
-    <t>вернуться новый идея</t>
-  </si>
-  <si>
-    <t>новый идея</t>
+    <t>вернуться эс новым идея</t>
   </si>
   <si>
     <t>взять максимум</t>
@@ -1301,28 +1232,25 @@
     <t>получить свитер покупать</t>
   </si>
   <si>
-    <t>вовлечение сотрудник</t>
-  </si>
-  <si>
-    <t>вовсе юность производственна</t>
-  </si>
-  <si>
-    <t>узнать вовлекать проект</t>
-  </si>
-  <si>
-    <t>встретиться коллега</t>
-  </si>
-  <si>
-    <t>встретиться товарищ</t>
-  </si>
-  <si>
-    <t>встреча друг</t>
-  </si>
-  <si>
-    <t>встреча коллега</t>
-  </si>
-  <si>
-    <t>выйти новый уровень меропр</t>
+    <t>воле юность э производственн</t>
+  </si>
+  <si>
+    <t>извлечь сотрудников</t>
+  </si>
+  <si>
+    <t>встретиться эс коллега</t>
+  </si>
+  <si>
+    <t>встретиться эс товарищи</t>
+  </si>
+  <si>
+    <t>встреча эс друзьями</t>
+  </si>
+  <si>
+    <t>встречи эс коллега</t>
+  </si>
+  <si>
+    <t>выйти новый уровень меропр э</t>
   </si>
   <si>
     <t>выбраться</t>
@@ -1331,328 +1259,253 @@
     <t>выступление аудитория</t>
   </si>
   <si>
-    <t>достигнуть эффективность работа</t>
-  </si>
-  <si>
-    <t>эффективность управление пред</t>
-  </si>
-  <si>
-    <t>думать будущее москва</t>
-  </si>
-  <si>
-    <t>закрепить получить знание</t>
+    <t>достичь эффективность работы</t>
+  </si>
+  <si>
+    <t>эффективность управления пред</t>
+  </si>
+  <si>
+    <t>думать будущем москва</t>
   </si>
   <si>
     <t>знакомство развитие</t>
   </si>
   <si>
-    <t>новый москва</t>
-  </si>
-  <si>
-    <t>новый знакомство</t>
-  </si>
-  <si>
-    <t>новый знакомство коллега</t>
-  </si>
-  <si>
-    <t>новый контакт</t>
-  </si>
-  <si>
-    <t>познакомиться коллега</t>
-  </si>
-  <si>
-    <t>знакомство концепция школа</t>
-  </si>
-  <si>
-    <t>хороший практика</t>
-  </si>
-  <si>
-    <t>хороший практика отрасль</t>
-  </si>
-  <si>
-    <t>ознакомление практика</t>
-  </si>
-  <si>
-    <t>познакомиться хороший красть</t>
+    <t>новые знаю моста</t>
+  </si>
+  <si>
+    <t>новые знакомства эс коллега</t>
+  </si>
+  <si>
+    <t>новые полезный знакомства</t>
+  </si>
+  <si>
+    <t>знакомство эс концепция школы</t>
+  </si>
+  <si>
+    <t>лучшие практика отраслям</t>
+  </si>
+  <si>
+    <t>ознакомление эс практика</t>
+  </si>
+  <si>
+    <t>познакомиться эс лучшими красти</t>
   </si>
   <si>
     <t>посмотреть обсудить практика</t>
   </si>
   <si>
-    <t>увидеть хороший практика узнать</t>
-  </si>
-  <si>
-    <t>изучить новый практика</t>
+    <t>увидеть лучшие практика узнав</t>
+  </si>
+  <si>
+    <t>изучить новые практика</t>
   </si>
   <si>
     <t>обмен практика</t>
   </si>
   <si>
-    <t>найти брат тренерство</t>
-  </si>
-  <si>
-    <t>научиться инструмент оп</t>
-  </si>
-  <si>
-    <t>новый инструмент</t>
-  </si>
-  <si>
-    <t>новый инструмент обучение</t>
-  </si>
-  <si>
-    <t>новый прикладной инструмент</t>
-  </si>
-  <si>
-    <t>опознание инструмент оп</t>
+    <t>найти собраться тренерству</t>
+  </si>
+  <si>
+    <t>научился инструмент би</t>
+  </si>
+  <si>
+    <t>новые инструменты э обучение</t>
+  </si>
+  <si>
+    <t>опознание инструмент би</t>
   </si>
   <si>
     <t>экспертность инструмент</t>
   </si>
   <si>
-    <t>узнать новый инструмент</t>
+    <t>узнать новые инструменты нат</t>
   </si>
   <si>
     <t>спать</t>
   </si>
   <si>
-    <t>ответить знание</t>
-  </si>
-  <si>
-    <t>попомнить копилка опыт</t>
-  </si>
-  <si>
-    <t>получение опыт</t>
+    <t>ответить знания</t>
+  </si>
+  <si>
+    <t>выполнить копилку опыта</t>
+  </si>
+  <si>
+    <t>обмен знания</t>
   </si>
   <si>
     <t>обмен</t>
   </si>
   <si>
-    <t>обмен коллега</t>
-  </si>
-  <si>
-    <t>меняться коллега</t>
+    <t>обмен эс коллега</t>
+  </si>
+  <si>
+    <t>меняться эс коллега</t>
   </si>
   <si>
     <t>меняться практически</t>
   </si>
   <si>
-    <t>опыт регион оп</t>
-  </si>
-  <si>
-    <t>передать знание участник</t>
-  </si>
-  <si>
-    <t>поделиться свой</t>
-  </si>
-  <si>
-    <t>понять функционал тренер</t>
-  </si>
-  <si>
-    <t>обучение взрослый</t>
-  </si>
-  <si>
-    <t>учиться тренерский навык</t>
-  </si>
-  <si>
-    <t>определить тренерский фишка</t>
-  </si>
-  <si>
-    <t>научиться обедать</t>
-  </si>
-  <si>
-    <t>поменять знание обучение</t>
-  </si>
-  <si>
-    <t>общение коллега</t>
-  </si>
-  <si>
-    <t>пообщатся коллега</t>
-  </si>
-  <si>
-    <t>освещение новый подходить</t>
-  </si>
-  <si>
-    <t>поиск новый решение</t>
-  </si>
-  <si>
-    <t>узнать инновационный фишка</t>
-  </si>
-  <si>
-    <t>учиться новый метод</t>
-  </si>
-  <si>
-    <t>сводить поведение мак</t>
-  </si>
-  <si>
-    <t>отвлечь руина</t>
-  </si>
-  <si>
-    <t>хороший провести время</t>
-  </si>
-  <si>
-    <t>повысить компетенция знание</t>
-  </si>
-  <si>
-    <t>повысить навык</t>
-  </si>
-  <si>
-    <t>повысить навык компитенция</t>
-  </si>
-  <si>
-    <t>повысить навык саморазвитии</t>
-  </si>
-  <si>
-    <t>повысить профи е навык</t>
-  </si>
-  <si>
-    <t>повысить свой компетенция</t>
-  </si>
-  <si>
-    <t>повысить тренерский компетенци</t>
-  </si>
-  <si>
-    <t>повышение квалификация</t>
-  </si>
-  <si>
-    <t>повышение компетенция</t>
-  </si>
-  <si>
-    <t>повышение компетенция тренер</t>
-  </si>
-  <si>
-    <t>повышение тренерский способный</t>
-  </si>
-  <si>
-    <t>прокачивание базовый знание</t>
+    <t>опыт регионов э би</t>
+  </si>
+  <si>
+    <t>передать знания участников</t>
+  </si>
+  <si>
+    <t>научиться тренерским навыки</t>
+  </si>
+  <si>
+    <t>определить тренерские фишка</t>
+  </si>
+  <si>
+    <t>научиться изучать</t>
+  </si>
+  <si>
+    <t>пережить знания обучение</t>
+  </si>
+  <si>
+    <t>общение эс коллега</t>
+  </si>
+  <si>
+    <t>пообщатся эс коллега</t>
+  </si>
+  <si>
+    <t>общаться эс коллега</t>
+  </si>
+  <si>
+    <t>освещение новых подходит</t>
+  </si>
+  <si>
+    <t>поиск новых решение</t>
+  </si>
+  <si>
+    <t>узнать инновационные фишка</t>
+  </si>
+  <si>
+    <t>научиться новым методы</t>
+  </si>
+  <si>
+    <t>сводить поведение ми</t>
+  </si>
+  <si>
+    <t>отвлечь руины</t>
+  </si>
+  <si>
+    <t>провести время</t>
+  </si>
+  <si>
+    <t>повысить компетенцию знания</t>
+  </si>
+  <si>
+    <t>повысить навыки компитенции</t>
+  </si>
+  <si>
+    <t>повысить навыки саморазвитии</t>
+  </si>
+  <si>
+    <t>повысить профи е навыки</t>
+  </si>
+  <si>
+    <t>повысить свои компетенции э</t>
+  </si>
+  <si>
+    <t>повысить компетенцию</t>
+  </si>
+  <si>
+    <t>повышение тренерских способна</t>
+  </si>
+  <si>
+    <t>прокачивание базовый знания</t>
   </si>
   <si>
     <t>развитие совершенствование</t>
   </si>
   <si>
-    <t>развитие компетенция</t>
-  </si>
-  <si>
-    <t>развитие компетенция оп</t>
-  </si>
-  <si>
-    <t>развитие компетенция тренер</t>
-  </si>
-  <si>
-    <t>развитие свой компетенция</t>
-  </si>
-  <si>
-    <t>развитие тренерский навык</t>
-  </si>
-  <si>
-    <t>развитие тренерский компетенци</t>
-  </si>
-  <si>
-    <t>разбить компетенция</t>
-  </si>
-  <si>
-    <t>разбить свой навык</t>
-  </si>
-  <si>
-    <t>самосовершенствование рави</t>
-  </si>
-  <si>
-    <t>совершенствование сфера оп</t>
-  </si>
-  <si>
-    <t>совершенствование улучшение</t>
-  </si>
-  <si>
-    <t>тренирсаие компетенция</t>
-  </si>
-  <si>
-    <t>улучшить компетенция</t>
-  </si>
-  <si>
-    <t>улучшить тренерский навык</t>
-  </si>
-  <si>
-    <t>усовершенстватиться</t>
-  </si>
-  <si>
-    <t>усовершенствовать свой навык</t>
-  </si>
-  <si>
-    <t>повысить квалификация</t>
-  </si>
-  <si>
-    <t>повысить квалификация ип</t>
-  </si>
-  <si>
-    <t>повысить компетенция</t>
-  </si>
-  <si>
-    <t>продавать компетенция</t>
-  </si>
-  <si>
-    <t>продавать навык</t>
-  </si>
-  <si>
-    <t>продавать орасторский навык</t>
-  </si>
-  <si>
-    <t>продавать свой навык</t>
-  </si>
-  <si>
-    <t>продавать тренерский знание</t>
-  </si>
-  <si>
-    <t>продавать тренерский компетенц</t>
-  </si>
-  <si>
-    <t>продавать тренерский навык</t>
-  </si>
-  <si>
-    <t>повышение производительность</t>
-  </si>
-  <si>
-    <t>получить ответ вопрос</t>
-  </si>
-  <si>
-    <t>узнать ответ интерес вор</t>
-  </si>
-  <si>
-    <t>решение вопрос</t>
-  </si>
-  <si>
-    <t>понять дальнейший действие</t>
-  </si>
-  <si>
-    <t>понять управление персонал</t>
-  </si>
-  <si>
-    <t>порождение мастер классный</t>
-  </si>
-  <si>
-    <t>применить</t>
-  </si>
-  <si>
-    <t>применить знание свой па е</t>
-  </si>
-  <si>
-    <t>пример реализовать процент</t>
-  </si>
-  <si>
-    <t>проверить свой знание</t>
-  </si>
-  <si>
-    <t>управление проект</t>
-  </si>
-  <si>
-    <t>стать тренер бек</t>
-  </si>
-  <si>
-    <t>рассказать страна шут</t>
-  </si>
-  <si>
-    <t>расширение творческий граница</t>
-  </si>
-  <si>
-    <t>обычай поменяйте сойер</t>
+    <t>развитие компетенций э би</t>
+  </si>
+  <si>
+    <t>развитие компетенций би</t>
+  </si>
+  <si>
+    <t>развитие тренерский навыки</t>
+  </si>
+  <si>
+    <t>разбить компетенции</t>
+  </si>
+  <si>
+    <t>разбить свои навыки</t>
+  </si>
+  <si>
+    <t>самосовершенствование разбил</t>
+  </si>
+  <si>
+    <t>совершенствование э сфера би</t>
+  </si>
+  <si>
+    <t>совершенствование знания</t>
+  </si>
+  <si>
+    <t>совершенствование улучшения</t>
+  </si>
+  <si>
+    <t>повысить квалификацию ип</t>
+  </si>
+  <si>
+    <t>продавать компетенции</t>
+  </si>
+  <si>
+    <t>продавать навыки</t>
+  </si>
+  <si>
+    <t>продавать орасторские навыки</t>
+  </si>
+  <si>
+    <t>продавать свои навыки</t>
+  </si>
+  <si>
+    <t>продавать тренерские компетенц</t>
+  </si>
+  <si>
+    <t>продавать тренерские навыки</t>
+  </si>
+  <si>
+    <t>узнать ответы интерес э вор</t>
+  </si>
+  <si>
+    <t>понять управление персонала</t>
+  </si>
+  <si>
+    <t>посетить мастер класс иные</t>
+  </si>
+  <si>
+    <t>порождение мастер класс</t>
+  </si>
+  <si>
+    <t>применить знания свой ом пор е</t>
+  </si>
+  <si>
+    <t>пример реализованных процентов</t>
+  </si>
+  <si>
+    <t>проекта деятельность</t>
+  </si>
+  <si>
+    <t>управление проекта</t>
+  </si>
+  <si>
+    <t>стать тренера фон</t>
+  </si>
+  <si>
+    <t>рассказать стране ши</t>
+  </si>
+  <si>
+    <t>расширение творческий границу</t>
+  </si>
+  <si>
+    <t>обычай э поменяйте э советы э</t>
+  </si>
+  <si>
+    <t>поменяй обычай совершенство</t>
   </si>
   <si>
     <t>cluster_name</t>
@@ -2062,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2088,13 +1941,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2114,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2140,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2166,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2192,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2218,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
         <v>331</v>
-      </c>
-      <c r="H8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2244,13 +2097,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2270,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2296,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2322,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -2348,13 +2201,13 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2374,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2400,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2426,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -2452,13 +2305,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H17" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2478,13 +2331,13 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2504,13 +2357,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2530,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2559,10 +2412,10 @@
         <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H21" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2582,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H22" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2608,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H23" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2634,13 +2487,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H24" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2660,13 +2513,13 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H25" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2686,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G26" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2712,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H27" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2738,13 +2591,13 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2764,13 +2617,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H29" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2790,13 +2643,13 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2816,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2842,13 +2695,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H32" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2868,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H33" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2894,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2920,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2946,13 +2799,13 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2972,13 +2825,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H37" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2998,13 +2851,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H38" t="s">
-        <v>361</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3024,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H39" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3050,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H40" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3076,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
-        <v>355</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3105,10 +2958,10 @@
         <v>305</v>
       </c>
       <c r="G42" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H42" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3128,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3154,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H44" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3180,10 +3033,10 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H45" t="s">
         <v>51</v>
@@ -3206,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3232,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H47" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3258,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G48" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3284,13 +3137,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H49" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3310,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G50" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H50" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3336,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G51" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H51" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3362,13 +3215,13 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H52" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3388,13 +3241,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3414,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G54" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H54" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3440,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G55" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H55" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3466,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H56" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3492,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H57" t="s">
-        <v>375</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3518,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3544,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3570,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="G60" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H60" t="s">
-        <v>377</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3596,13 +3449,13 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G61" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H61" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3622,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H62" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3648,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H63" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3674,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G64" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H64" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3700,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="G65" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H65" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3726,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H66" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3752,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3778,13 +3631,13 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="G68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H68" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3804,13 +3657,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H69" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3830,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G70" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H70" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3856,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G71" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H71" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3882,13 +3735,13 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G72" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H72" t="s">
-        <v>388</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3908,13 +3761,13 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H73" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3934,13 +3787,13 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3960,13 +3813,13 @@
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H75" t="s">
-        <v>390</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3986,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G76" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4012,13 +3865,13 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G77" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H77" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4038,13 +3891,13 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4064,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G79" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H79" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4090,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H80" t="s">
-        <v>393</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4116,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H81" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4142,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H82" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4168,13 +4021,13 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H83" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4194,13 +4047,13 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H84" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4220,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H85" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4246,13 +4099,13 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G86" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H86" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4272,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G87" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H87" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4298,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="G88" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H88" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4324,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H89" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4350,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H90" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4376,13 +4229,13 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G91" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H91" t="s">
-        <v>400</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4402,13 +4255,13 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G92" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4428,13 +4281,13 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G93" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H93" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4454,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H94" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4480,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H95" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4506,13 +4359,13 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G96" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H96" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4532,13 +4385,13 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G97" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H97" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4558,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G98" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H98" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4584,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H99" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4610,13 +4463,13 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="G100" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H100" t="s">
-        <v>407</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4636,13 +4489,13 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G101" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H101" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4662,13 +4515,13 @@
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H102" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4688,13 +4541,13 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H103" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4714,13 +4567,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="G104" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H104" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4740,13 +4593,13 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G105" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H105" t="s">
-        <v>411</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4769,10 +4622,10 @@
         <v>313</v>
       </c>
       <c r="G106" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H106" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4792,13 +4645,13 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="G107" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H107" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4818,13 +4671,13 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G108" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H108" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4844,13 +4697,13 @@
         <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="G109" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H109" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4870,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H110" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4896,13 +4749,13 @@
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="G111" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H111" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4922,13 +4775,13 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H112" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4948,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H113" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4974,13 +4827,13 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G114" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H114" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5000,10 +4853,10 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G115" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H115" t="s">
         <v>121</v>
@@ -5026,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G116" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H116" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5052,13 +4905,13 @@
         <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5078,13 +4931,13 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5104,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G119" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H119" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5130,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G120" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H120" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5156,13 +5009,13 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G121" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H121" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5182,13 +5035,13 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G122" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H122" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5208,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G123" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H123" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5234,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G124" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H124" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5260,13 +5113,13 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G125" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H125" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5286,13 +5139,13 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G126" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H126" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5312,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H127" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5338,13 +5191,13 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G128" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H128" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5364,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G129" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H129" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5393,10 +5246,10 @@
         <v>157</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H130" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5416,13 +5269,13 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G131" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H131" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5442,13 +5295,13 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>428</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5468,13 +5321,13 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G133" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H133" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5494,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="G134" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H134" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5520,13 +5373,13 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G135" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H135" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5546,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="G136" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H136" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5572,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="G137" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5598,13 +5451,13 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G138" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H138" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5624,13 +5477,13 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="G139" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H139" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5650,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="G140" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H140" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5676,10 +5529,10 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G141" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H141" t="s">
         <v>147</v>
@@ -5702,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G142" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H142" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5728,13 +5581,13 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G143" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H143" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5754,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H144" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5780,13 +5633,13 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G145" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H145" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5806,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G146" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H146" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5832,13 +5685,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G147" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H147" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5858,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G148" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H148" t="s">
         <v>154</v>
@@ -5884,13 +5737,13 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="G149" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H149" t="s">
-        <v>441</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5913,10 +5766,10 @@
         <v>157</v>
       </c>
       <c r="G150" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5939,7 +5792,7 @@
         <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H151" t="s">
         <v>157</v>
@@ -5962,13 +5815,13 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G152" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H152" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5988,10 +5841,10 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="G153" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H153" t="s">
         <v>159</v>
@@ -6014,13 +5867,13 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H154" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6040,13 +5893,13 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H155" t="s">
-        <v>444</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6066,13 +5919,13 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G156" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H156" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6092,13 +5945,13 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H157" t="s">
-        <v>446</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6118,13 +5971,13 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="G158" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H158" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6147,7 +6000,7 @@
         <v>157</v>
       </c>
       <c r="G159" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H159" t="s">
         <v>165</v>
@@ -6170,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G160" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H160" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6196,13 +6049,13 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G161" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H161" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6222,13 +6075,13 @@
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G162" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H162" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6248,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G163" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H163" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6274,13 +6127,13 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G164" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H164" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6300,13 +6153,13 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G165" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H165" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6326,13 +6179,13 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G166" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H166" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6352,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G167" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H167" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6378,13 +6231,13 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G168" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H168" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6404,13 +6257,13 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G169" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H169" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6430,13 +6283,13 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G170" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H170" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6456,13 +6309,13 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G171" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H171" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6482,13 +6335,13 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G172" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H172" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6508,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G173" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H173" t="s">
         <v>179</v>
@@ -6537,10 +6390,10 @@
         <v>321</v>
       </c>
       <c r="G174" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H174" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6560,13 +6413,13 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="G175" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H175" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6586,13 +6439,13 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G176" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H176" t="s">
-        <v>459</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6612,13 +6465,13 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G177" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H177" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6638,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G178" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H178" t="s">
-        <v>461</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6664,13 +6517,13 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G179" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H179" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6690,13 +6543,13 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G180" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H180" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6716,13 +6569,13 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G181" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H181" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6742,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="G182" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H182" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6768,13 +6621,13 @@
         <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G183" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H183" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6794,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H184" t="s">
         <v>190</v>
@@ -6820,10 +6673,10 @@
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H185" t="s">
         <v>191</v>
@@ -6846,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G186" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H186" t="s">
         <v>192</v>
@@ -6872,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="G187" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H187" t="s">
         <v>194</v>
@@ -6898,10 +6751,10 @@
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="G188" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H188" t="s">
         <v>194</v>
@@ -6924,13 +6777,13 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="G189" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H189" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6950,10 +6803,10 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G190" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H190" t="s">
         <v>196</v>
@@ -6976,13 +6829,13 @@
         <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="G191" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H191" t="s">
-        <v>468</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7002,13 +6855,13 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H192" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7028,13 +6881,13 @@
         <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H193" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7054,13 +6907,13 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G194" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H194" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7080,13 +6933,13 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G195" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H195" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7106,13 +6959,13 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G196" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H196" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7132,13 +6985,13 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G197" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H197" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7158,13 +7011,13 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G198" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H198" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7184,13 +7037,13 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G199" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H199" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7210,13 +7063,13 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G200" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H200" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7236,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="G201" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H201" t="s">
         <v>207</v>
@@ -7265,10 +7118,10 @@
         <v>321</v>
       </c>
       <c r="G202" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H202" t="s">
-        <v>476</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7288,13 +7141,13 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="G203" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H203" t="s">
-        <v>477</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7314,13 +7167,13 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="G204" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H204" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7340,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G205" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H205" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7366,13 +7219,13 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G206" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H206" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7392,13 +7245,13 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G207" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H207" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7418,10 +7271,10 @@
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H208" t="s">
         <v>214</v>
@@ -7444,13 +7297,13 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G209" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H209" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7470,13 +7323,13 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G210" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H210" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7496,13 +7349,13 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G211" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H211" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7522,13 +7375,13 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G212" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H212" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7548,13 +7401,13 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="G213" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H213" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7574,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="G214" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H214" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7600,13 +7453,13 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G215" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H215" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7626,13 +7479,13 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G216" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H216" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7652,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G217" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H217" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7678,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G218" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H218" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7704,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G219" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H219" t="s">
         <v>225</v>
@@ -7730,10 +7583,10 @@
         <v>2</v>
       </c>
       <c r="F220" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G220" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H220" t="s">
         <v>226</v>
@@ -7756,13 +7609,13 @@
         <v>2</v>
       </c>
       <c r="F221" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G221" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H221" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7782,13 +7635,13 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G222" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H222" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7808,13 +7661,13 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G223" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H223" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7834,13 +7687,13 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G224" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H224" t="s">
-        <v>492</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7860,13 +7713,13 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="G225" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H225" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7886,13 +7739,13 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G226" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H226" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7912,13 +7765,13 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G227" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H227" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7938,13 +7791,13 @@
         <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G228" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H228" t="s">
-        <v>496</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7964,13 +7817,13 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G229" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H229" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7990,13 +7843,13 @@
         <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G230" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H230" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8016,13 +7869,13 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G231" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H231" t="s">
-        <v>497</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8042,13 +7895,13 @@
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G232" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H232" t="s">
-        <v>498</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8068,13 +7921,13 @@
         <v>2</v>
       </c>
       <c r="F233" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G233" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H233" t="s">
-        <v>499</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8094,13 +7947,13 @@
         <v>3</v>
       </c>
       <c r="F234" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G234" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H234" t="s">
-        <v>499</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8120,13 +7973,13 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G235" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H235" t="s">
-        <v>500</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8146,13 +7999,13 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G236" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H236" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8172,13 +8025,13 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G237" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H237" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8198,10 +8051,10 @@
         <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G238" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H238" t="s">
         <v>244</v>
@@ -8224,13 +8077,13 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G239" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H239" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8250,13 +8103,13 @@
         <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G240" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H240" t="s">
-        <v>504</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8276,13 +8129,13 @@
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G241" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H241" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8302,13 +8155,13 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G242" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H242" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8328,13 +8181,13 @@
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G243" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H243" t="s">
-        <v>506</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8354,10 +8207,10 @@
         <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G244" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H244" t="s">
         <v>250</v>
@@ -8380,13 +8233,13 @@
         <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G245" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H245" t="s">
-        <v>507</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8406,13 +8259,13 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="G246" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H246" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8432,13 +8285,13 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G247" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H247" t="s">
-        <v>509</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8458,13 +8311,13 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G248" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H248" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8484,13 +8337,13 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="G249" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H249" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8510,10 +8363,10 @@
         <v>4</v>
       </c>
       <c r="F250" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="G250" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H250" t="s">
         <v>256</v>
@@ -8536,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G251" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H251" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8562,10 +8415,10 @@
         <v>5</v>
       </c>
       <c r="F252" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G252" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H252" t="s">
         <v>258</v>
@@ -8588,13 +8441,13 @@
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G253" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H253" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8614,13 +8467,13 @@
         <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G254" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H254" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8640,13 +8493,13 @@
         <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G255" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H255" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8666,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G256" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H256" t="s">
-        <v>515</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8692,13 +8545,13 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G257" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H257" t="s">
-        <v>516</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8718,13 +8571,13 @@
         <v>2</v>
       </c>
       <c r="F258" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="G258" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H258" t="s">
-        <v>517</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8744,13 +8597,13 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G259" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H259" t="s">
-        <v>518</v>
+        <v>265</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8770,13 +8623,13 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G260" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H260" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8796,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G261" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H261" t="s">
-        <v>519</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8822,13 +8675,13 @@
         <v>4</v>
       </c>
       <c r="F262" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G262" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H262" t="s">
-        <v>520</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8848,13 +8701,13 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="G263" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H263" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8874,13 +8727,13 @@
         <v>4</v>
       </c>
       <c r="F264" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G264" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H264" t="s">
-        <v>522</v>
+        <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8900,13 +8753,13 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G265" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H265" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8926,13 +8779,13 @@
         <v>2</v>
       </c>
       <c r="F266" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="G266" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H266" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8952,13 +8805,13 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="G267" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H267" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8978,13 +8831,13 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="G268" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H268" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9004,13 +8857,13 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G269" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H269" t="s">
-        <v>527</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9030,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G270" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H270" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9056,13 +8909,13 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="G271" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H271" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9082,10 +8935,10 @@
         <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G272" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H272" t="s">
         <v>278</v>
@@ -9108,13 +8961,13 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="G273" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H273" t="s">
-        <v>530</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9134,13 +8987,13 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G274" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H274" t="s">
-        <v>531</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9160,13 +9013,13 @@
         <v>1</v>
       </c>
       <c r="F275" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G275" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H275" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9186,13 +9039,13 @@
         <v>1</v>
       </c>
       <c r="F276" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G276" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H276" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9212,13 +9065,13 @@
         <v>1</v>
       </c>
       <c r="F277" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="G277" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H277" t="s">
-        <v>534</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9238,13 +9091,13 @@
         <v>1</v>
       </c>
       <c r="F278" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G278" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H278" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9264,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="F279" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="G279" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H279" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9290,13 +9143,13 @@
         <v>1</v>
       </c>
       <c r="F280" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G280" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H280" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9316,13 +9169,13 @@
         <v>1</v>
       </c>
       <c r="F281" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="G281" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H281" t="s">
-        <v>537</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9342,13 +9195,13 @@
         <v>1</v>
       </c>
       <c r="F282" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G282" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H282" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9368,13 +9221,13 @@
         <v>1</v>
       </c>
       <c r="F283" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="G283" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H283" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9394,13 +9247,13 @@
         <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G284" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H284" t="s">
-        <v>540</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9420,13 +9273,13 @@
         <v>1</v>
       </c>
       <c r="F285" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G285" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H285" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9446,13 +9299,13 @@
         <v>1</v>
       </c>
       <c r="F286" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G286" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H286" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9472,13 +9325,13 @@
         <v>1</v>
       </c>
       <c r="F287" t="s">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="G287" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H287" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9498,13 +9351,13 @@
         <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G288" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H288" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9524,13 +9377,13 @@
         <v>1</v>
       </c>
       <c r="F289" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G289" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H289" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9550,10 +9403,10 @@
         <v>1</v>
       </c>
       <c r="F290" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G290" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H290" t="s">
         <v>296</v>
@@ -9579,7 +9432,7 @@
         <v>321</v>
       </c>
       <c r="G291" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H291" t="s">
         <v>321</v>
@@ -9602,13 +9455,13 @@
         <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G292" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H292" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9628,13 +9481,13 @@
         <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G293" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H293" t="s">
-        <v>318</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9644,7 +9497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9652,10 +9505,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9663,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9674,10 +9527,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9685,10 +9538,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9696,10 +9549,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9707,10 +9560,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9718,10 +9571,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9729,10 +9582,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9740,10 +9593,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9751,10 +9604,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9762,10 +9615,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9773,10 +9626,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9784,7 +9637,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -9795,10 +9648,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9806,10 +9659,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9817,10 +9670,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9828,10 +9681,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9839,10 +9692,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9850,10 +9703,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9861,10 +9714,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9872,10 +9725,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>71</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9883,10 +9736,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9894,10 +9747,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9905,7 +9758,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -9916,10 +9769,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9927,10 +9780,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9938,10 +9791,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9949,10 +9802,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9960,10 +9813,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9971,7 +9824,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -9982,10 +9835,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9993,7 +9846,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -10004,10 +9857,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10015,10 +9868,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10026,10 +9879,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10037,9 +9890,42 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
     </row>
